--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mosta\git\Selenium_E-Commerce_E2E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1310CF7E-BA1D-4200-B5ED-5BA2DE5601B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1444A1-662B-49A8-9D01-06762D4BC26D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="54">
   <si>
     <t>Testcases</t>
   </si>
@@ -176,6 +176,18 @@
   </si>
   <si>
     <t>Mostafaabcde2021@hotmail.com</t>
+  </si>
+  <si>
+    <t>Signup6</t>
+  </si>
+  <si>
+    <t>Register6</t>
+  </si>
+  <si>
+    <t>Login6</t>
+  </si>
+  <si>
+    <t>Mostafanageeb1@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -505,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -913,6 +925,75 @@
         <v>18</v>
       </c>
     </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{7F803C25-F3C1-4DDB-BB8F-A60C26F5EBD7}"/>
@@ -925,9 +1006,12 @@
     <hyperlink ref="B8" r:id="rId8" xr:uid="{36489888-78B0-494A-A3CD-B2DF433D0043}"/>
     <hyperlink ref="B9:B10" r:id="rId9" display="Mostafaabcd2020@hotmail.com" xr:uid="{D03A645E-3982-480D-AA15-33B41B1F8B75}"/>
     <hyperlink ref="B12:B13" r:id="rId10" display="Mostafaabcde2021@hotmail.com" xr:uid="{C91020D9-501C-48DA-A0EC-1A40A5EAE8D4}"/>
+    <hyperlink ref="B18:B19" r:id="rId11" display="Mostafanageeb@hotmail.com" xr:uid="{E6F441C9-2493-406B-A0B2-7BD55904A7B4}"/>
+    <hyperlink ref="B19" r:id="rId12" xr:uid="{B3B7D0CD-1CD3-4184-BA2E-FD4890563FB6}"/>
+    <hyperlink ref="B17:B18" r:id="rId13" display="Mostafanageeb@hotmail.com" xr:uid="{7D270CBD-2858-494B-A17A-F1CED7271DE4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mosta\git\Selenium_E-Commerce_E2E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1444A1-662B-49A8-9D01-06762D4BC26D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19761A4C-E925-4C0D-AD92-0ECB5FD44D6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,9 +169,6 @@
     <t>Mostafa_mohab1999@hotmail.com</t>
   </si>
   <si>
-    <t>Mostafaabc9@hotmail.com</t>
-  </si>
-  <si>
     <t>Mostafaabcd2020@hotmail.com</t>
   </si>
   <si>
@@ -187,7 +184,10 @@
     <t>Login6</t>
   </si>
   <si>
-    <t>Mostafanageeb1@hotmail.com</t>
+    <t>Mostafanageebelsayed@hotmail.com</t>
+  </si>
+  <si>
+    <t>Mostafaahmed9@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -520,13 +520,13 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="30.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -654,7 +654,7 @@
         <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -662,7 +662,7 @@
         <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
@@ -712,7 +712,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
@@ -723,7 +723,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -731,7 +731,7 @@
         <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>18</v>
@@ -781,7 +781,7 @@
         <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -792,7 +792,7 @@
         <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -800,7 +800,7 @@
         <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>18</v>
@@ -850,7 +850,7 @@
         <v>41</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>18</v>
@@ -927,18 +927,18 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>18</v>
@@ -985,10 +985,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>18</v>
@@ -1002,13 +1002,13 @@
     <hyperlink ref="B14" r:id="rId4" xr:uid="{1B26A3D1-4C7D-47B7-9667-DFD8611B992C}"/>
     <hyperlink ref="B15:B16" r:id="rId5" display="MostafaMohababcdef@hotmail.com" xr:uid="{40BE7CB7-4D57-46DD-9CB9-A2F0A6B80AE8}"/>
     <hyperlink ref="B3:B4" r:id="rId6" display="Mostafa_mohab1999@hotmail.com" xr:uid="{6620ADB7-A791-4AA2-BEF0-3A4200A8B9AE}"/>
-    <hyperlink ref="B6:B7" r:id="rId7" display="Mostafaabc9@hotmail.com" xr:uid="{3C8A26FA-4484-4D94-8C0E-4B37B9630F08}"/>
-    <hyperlink ref="B8" r:id="rId8" xr:uid="{36489888-78B0-494A-A3CD-B2DF433D0043}"/>
-    <hyperlink ref="B9:B10" r:id="rId9" display="Mostafaabcd2020@hotmail.com" xr:uid="{D03A645E-3982-480D-AA15-33B41B1F8B75}"/>
-    <hyperlink ref="B12:B13" r:id="rId10" display="Mostafaabcde2021@hotmail.com" xr:uid="{C91020D9-501C-48DA-A0EC-1A40A5EAE8D4}"/>
-    <hyperlink ref="B18:B19" r:id="rId11" display="Mostafanageeb@hotmail.com" xr:uid="{E6F441C9-2493-406B-A0B2-7BD55904A7B4}"/>
-    <hyperlink ref="B19" r:id="rId12" xr:uid="{B3B7D0CD-1CD3-4184-BA2E-FD4890563FB6}"/>
-    <hyperlink ref="B17:B18" r:id="rId13" display="Mostafanageeb@hotmail.com" xr:uid="{7D270CBD-2858-494B-A17A-F1CED7271DE4}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{36489888-78B0-494A-A3CD-B2DF433D0043}"/>
+    <hyperlink ref="B9:B10" r:id="rId8" display="Mostafaabcd2020@hotmail.com" xr:uid="{D03A645E-3982-480D-AA15-33B41B1F8B75}"/>
+    <hyperlink ref="B12:B13" r:id="rId9" display="Mostafaabcde2021@hotmail.com" xr:uid="{C91020D9-501C-48DA-A0EC-1A40A5EAE8D4}"/>
+    <hyperlink ref="B18:B19" r:id="rId10" display="Mostafanageeb@hotmail.com" xr:uid="{E6F441C9-2493-406B-A0B2-7BD55904A7B4}"/>
+    <hyperlink ref="B19" r:id="rId11" xr:uid="{B3B7D0CD-1CD3-4184-BA2E-FD4890563FB6}"/>
+    <hyperlink ref="B17:B18" r:id="rId12" display="Mostafanageeb@hotmail.com" xr:uid="{6AEC6EE4-A0D8-4B5E-BAB5-1AB933C601BB}"/>
+    <hyperlink ref="B6:B7" r:id="rId13" display="Mostafaahmed9@hotmail.com" xr:uid="{7F995A88-BEF2-4CBE-8B4A-18181680E1B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
